--- a/users-240123.xlsx
+++ b/users-240123.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Papi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F8B54E-3422-40D8-811D-156339567C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7D984A-29C1-4B1C-8A6B-4EFB8C1CD4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -468,7 +468,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>5000</v>
+        <v>1001</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>5001</v>
+        <v>1002</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>5002</v>
+        <v>1003</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>5003</v>
+        <v>1004</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5005</v>
+        <v>1005</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5007</v>
+        <v>1007</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
